--- a/order_agas_may_june.xlsx
+++ b/order_agas_may_june.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scrpt\agas-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="АЗС" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -435,13 +440,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,29 +788,29 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="26.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="26.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -844,7 +849,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -861,7 +866,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -910,18 +915,18 @@
       <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="25" t="s">
         <v>31</v>
       </c>
@@ -934,9 +939,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <v>32200</v>
+        <v>13007</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>19</v>
@@ -956,20 +961,20 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <v>960</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="14">
         <f>P6-M6</f>
         <v>-960</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
-        <v>32202</v>
+        <v>13108</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>19</v>
@@ -989,19 +994,19 @@
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="23">
+      <c r="M7" s="22">
         <f>M6</f>
         <v>960</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="14">
         <f t="shared" ref="Q7:Q14" si="0">P7-M7</f>
         <v>-960</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>32205</v>
       </c>
@@ -1023,19 +1028,19 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="23">
+      <c r="M8" s="22">
         <f t="shared" ref="M8:M14" si="1">M7</f>
         <v>960</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="14">
         <f t="shared" si="0"/>
         <v>-960</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>32210</v>
       </c>
@@ -1057,19 +1062,19 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
-      <c r="M9" s="23">
+      <c r="M9" s="22">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="14">
         <f t="shared" si="0"/>
         <v>-960</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>32213</v>
       </c>
@@ -1091,19 +1096,19 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="23">
+      <c r="M10" s="22">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="14">
         <f t="shared" si="0"/>
         <v>-960</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>32218</v>
       </c>
@@ -1125,19 +1130,19 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="23">
+      <c r="M11" s="22">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="14">
         <f t="shared" si="0"/>
         <v>-960</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>32219</v>
       </c>
@@ -1159,19 +1164,19 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="23">
+      <c r="M12" s="22">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="14">
         <f t="shared" si="0"/>
         <v>-960</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>32220</v>
       </c>
@@ -1193,19 +1198,19 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="23">
+      <c r="M13" s="22">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="14">
         <f t="shared" si="0"/>
         <v>-960</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>32221</v>
       </c>
@@ -1227,12 +1232,12 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="23">
+      <c r="M14" s="22">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="14">
         <f t="shared" si="0"/>
@@ -1260,7 +1265,7 @@
         <v>-8640</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
@@ -1270,18 +1275,18 @@
       <c r="D17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="25" t="s">
         <v>33</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>32200</v>
       </c>
@@ -1316,18 +1321,18 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="23">
+      <c r="M18" s="22">
         <v>5280</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="14">
         <f>P18-M18</f>
         <v>-5280</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>32202</v>
       </c>
@@ -1349,19 +1354,19 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <f>M18</f>
         <v>5280</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="14">
         <f t="shared" ref="Q19:Q26" si="2">P19-M19</f>
         <v>-5280</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>32205</v>
       </c>
@@ -1383,19 +1388,19 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <f t="shared" ref="M20:M26" si="3">M19</f>
         <v>5280</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="14">
         <f t="shared" si="2"/>
         <v>-5280</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>32210</v>
       </c>
@@ -1417,19 +1422,19 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="23">
+      <c r="M21" s="22">
         <f t="shared" si="3"/>
         <v>5280</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="14">
         <f t="shared" si="2"/>
         <v>-5280</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>32213</v>
       </c>
@@ -1451,19 +1456,19 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="23">
+      <c r="M22" s="22">
         <f t="shared" si="3"/>
         <v>5280</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="14">
         <f t="shared" si="2"/>
         <v>-5280</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>32218</v>
       </c>
@@ -1485,19 +1490,19 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="23">
+      <c r="M23" s="22">
         <f t="shared" si="3"/>
         <v>5280</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="14">
         <f t="shared" si="2"/>
         <v>-5280</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>32219</v>
       </c>
@@ -1519,19 +1524,19 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="23">
+      <c r="M24" s="22">
         <f t="shared" si="3"/>
         <v>5280</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
         <v>-5280</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>32220</v>
       </c>
@@ -1553,19 +1558,19 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="23">
+      <c r="M25" s="22">
         <f t="shared" si="3"/>
         <v>5280</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="14">
         <f t="shared" si="2"/>
         <v>-5280</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>32221</v>
       </c>
@@ -1587,12 +1592,12 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="23">
+      <c r="M26" s="22">
         <f t="shared" si="3"/>
         <v>5280</v>
       </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
@@ -1605,7 +1610,7 @@
         <v>-47520</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
@@ -1615,18 +1620,18 @@
       <c r="D29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="25" t="s">
         <v>34</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>32200</v>
       </c>
@@ -1661,19 +1666,19 @@
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="23">
+      <c r="M30" s="22">
         <f>15*480</f>
         <v>7200</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="14">
         <f>P30-M30</f>
         <v>-7200</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>32202</v>
       </c>
@@ -1695,19 +1700,19 @@
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="23">
+      <c r="M31" s="22">
         <f>M30</f>
         <v>7200</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="14">
         <f t="shared" ref="Q31:Q38" si="4">P31-M31</f>
         <v>-7200</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>32205</v>
       </c>
@@ -1729,19 +1734,19 @@
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
-      <c r="M32" s="23">
+      <c r="M32" s="22">
         <f t="shared" ref="M32:M38" si="5">M31</f>
         <v>7200</v>
       </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="14">
         <f t="shared" si="4"/>
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>32210</v>
       </c>
@@ -1763,19 +1768,19 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="23">
+      <c r="M33" s="22">
         <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="14">
         <f t="shared" si="4"/>
         <v>-7200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>32213</v>
       </c>
@@ -1797,19 +1802,19 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
-      <c r="M34" s="23">
+      <c r="M34" s="22">
         <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="14">
         <f t="shared" si="4"/>
         <v>-7200</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>32218</v>
       </c>
@@ -1831,19 +1836,19 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
-      <c r="M35" s="23">
+      <c r="M35" s="22">
         <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="14">
         <f t="shared" si="4"/>
         <v>-7200</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>32219</v>
       </c>
@@ -1865,19 +1870,19 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
-      <c r="M36" s="23">
+      <c r="M36" s="22">
         <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="14">
         <f t="shared" si="4"/>
         <v>-7200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>32220</v>
       </c>
@@ -1899,19 +1904,19 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
-      <c r="M37" s="23">
+      <c r="M37" s="22">
         <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="14">
         <f t="shared" si="4"/>
         <v>-7200</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>32221</v>
       </c>
@@ -1933,19 +1938,22 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
-      <c r="M38" s="23">
+      <c r="M38" s="22">
         <f t="shared" si="5"/>
         <v>7200</v>
       </c>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="14">
         <f t="shared" si="4"/>
         <v>-7200</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N39" s="1">
+        <v>1000</v>
+      </c>
       <c r="Q39" s="19">
         <f>SUM(Q30:Q38)</f>
         <v>-64800</v>
@@ -2026,12 +2034,6 @@
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M29:O29"/>
     <mergeCell ref="M18:O18"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:L25"/>
     <mergeCell ref="M35:O35"/>
     <mergeCell ref="M36:O36"/>
     <mergeCell ref="M37:O37"/>
@@ -2041,12 +2043,6 @@
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="I33:L33"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="I37:L37"/>
     <mergeCell ref="E38:H38"/>
@@ -2057,6 +2053,18 @@
     <mergeCell ref="I35:L35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="I36:L36"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
